--- a/documents/setExcelData.xlsx
+++ b/documents/setExcelData.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>jjj</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -31,12 +31,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -51,8 +61,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -66,7 +77,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
     </row>
